--- a/1st_round_screening/ACE/iteration_0/data/transfer_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/transfer_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,16 +541,6 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity_STD</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
           <t>Solvent</t>
         </is>
       </c>
@@ -560,46 +550,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33.6</v>
+        <v>33.95</v>
       </c>
       <c r="C2" t="n">
         <v>41.65</v>
       </c>
       <c r="D2" t="n">
-        <v>34.65</v>
+        <v>35.35</v>
       </c>
       <c r="E2" t="n">
-        <v>22.05</v>
+        <v>21.7</v>
       </c>
       <c r="F2" t="n">
-        <v>67.2</v>
+        <v>67.55</v>
       </c>
       <c r="G2" t="n">
-        <v>5.95</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="I2" t="n">
         <v>24.5</v>
       </c>
       <c r="J2" t="n">
-        <v>59.5</v>
+        <v>59.85</v>
       </c>
       <c r="K2" t="n">
         <v>53.55</v>
       </c>
       <c r="L2" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M2" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N2" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O2" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -607,10 +597,8 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>0.35</v>
+      <c r="V2" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -618,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58.1</v>
+        <v>58.45</v>
       </c>
       <c r="C3" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="D3" t="n">
         <v>31.5</v>
@@ -633,31 +621,31 @@
         <v>31.5</v>
       </c>
       <c r="G3" t="n">
-        <v>40.95</v>
+        <v>41.3</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>32.9</v>
+        <v>33.25</v>
       </c>
       <c r="J3" t="n">
-        <v>16.1</v>
+        <v>16.45</v>
       </c>
       <c r="K3" t="n">
-        <v>12.95</v>
+        <v>12.6</v>
       </c>
       <c r="L3" t="n">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="M3" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N3" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -665,10 +653,8 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>0.35</v>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -676,22 +662,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.3</v>
+        <v>41.65</v>
       </c>
       <c r="C4" t="n">
-        <v>62.65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>10.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>19.95</v>
+        <v>19.6</v>
       </c>
       <c r="F4" t="n">
-        <v>15.75</v>
+        <v>15.4</v>
       </c>
       <c r="G4" t="n">
-        <v>76.65000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="H4" t="n">
         <v>22.05</v>
@@ -700,22 +686,22 @@
         <v>75.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="n">
-        <v>23.45</v>
+        <v>23.1</v>
       </c>
       <c r="L4" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M4" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N4" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="O4" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -723,10 +709,8 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
-        <v>-0</v>
+      <c r="V4" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -734,46 +718,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.6</v>
+        <v>5.95</v>
       </c>
       <c r="C5" t="n">
         <v>13.65</v>
       </c>
       <c r="D5" t="n">
-        <v>59.15</v>
+        <v>59.5</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>48.65</v>
       </c>
       <c r="F5" t="n">
         <v>49.35</v>
       </c>
       <c r="G5" t="n">
-        <v>24.85</v>
+        <v>25.2</v>
       </c>
       <c r="H5" t="n">
-        <v>40.95</v>
+        <v>40.6</v>
       </c>
       <c r="I5" t="n">
         <v>14.35</v>
       </c>
       <c r="J5" t="n">
-        <v>42.35</v>
+        <v>42</v>
       </c>
       <c r="K5" t="n">
         <v>50.75</v>
       </c>
       <c r="L5" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M5" t="n">
         <v>372</v>
       </c>
       <c r="N5" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O5" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -781,9 +765,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,13 +780,13 @@
         <v>68.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>54.95</v>
+        <v>55.3</v>
       </c>
       <c r="E6" t="n">
-        <v>38.85</v>
+        <v>39.2</v>
       </c>
       <c r="F6" t="n">
-        <v>39.55</v>
+        <v>39.9</v>
       </c>
       <c r="G6" t="n">
         <v>17.85</v>
@@ -816,22 +798,22 @@
         <v>56.7</v>
       </c>
       <c r="J6" t="n">
-        <v>16.45</v>
+        <v>16.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M6" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N6" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O6" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -839,10 +821,8 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0</v>
+      <c r="V6" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="7">
@@ -850,16 +830,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60.55</v>
+        <v>61.25</v>
       </c>
       <c r="C7" t="n">
-        <v>9.1</v>
+        <v>8.75</v>
       </c>
       <c r="D7" t="n">
-        <v>22.4</v>
+        <v>22.05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1.05</v>
@@ -868,28 +848,28 @@
         <v>49.7</v>
       </c>
       <c r="H7" t="n">
-        <v>56.35</v>
+        <v>56.7</v>
       </c>
       <c r="I7" t="n">
-        <v>9.449999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>55.65</v>
       </c>
       <c r="K7" t="n">
-        <v>85.75</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="L7" t="n">
         <v>300</v>
       </c>
       <c r="M7" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N7" t="n">
         <v>86</v>
       </c>
       <c r="O7" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -897,10 +877,8 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="n">
-        <v>-0.7</v>
+      <c r="V7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -908,22 +886,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.65</v>
+        <v>41.3</v>
       </c>
       <c r="C8" t="n">
         <v>40.95</v>
       </c>
       <c r="D8" t="n">
-        <v>48.3</v>
+        <v>47.95</v>
       </c>
       <c r="E8" t="n">
-        <v>49.7</v>
+        <v>50.05</v>
       </c>
       <c r="F8" t="n">
         <v>16.45</v>
       </c>
       <c r="G8" t="n">
-        <v>42.7</v>
+        <v>42.35</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
@@ -932,7 +910,7 @@
         <v>25.55</v>
       </c>
       <c r="J8" t="n">
-        <v>49.35</v>
+        <v>49.7</v>
       </c>
       <c r="K8" t="n">
         <v>28.35</v>
@@ -941,10 +919,10 @@
         <v>371</v>
       </c>
       <c r="M8" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O8" t="n">
         <v>190</v>
@@ -955,10 +933,8 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
-        <v>0</v>
+      <c r="V8" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="9">
@@ -969,13 +945,13 @@
         <v>23.8</v>
       </c>
       <c r="C9" t="n">
-        <v>19.95</v>
+        <v>20.3</v>
       </c>
       <c r="D9" t="n">
         <v>8.4</v>
       </c>
       <c r="E9" t="n">
-        <v>30.1</v>
+        <v>29.75</v>
       </c>
       <c r="F9" t="n">
         <v>54.25</v>
@@ -984,7 +960,7 @@
         <v>31.85</v>
       </c>
       <c r="H9" t="n">
-        <v>69.3</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>45.85</v>
@@ -993,19 +969,19 @@
         <v>34.65</v>
       </c>
       <c r="K9" t="n">
-        <v>31.5</v>
+        <v>31.15</v>
       </c>
       <c r="L9" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M9" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N9" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O9" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1013,9 +989,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
+      <c r="V9" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1024,25 +998,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.25</v>
+        <v>19.95</v>
       </c>
       <c r="C10" t="n">
         <v>57.75</v>
       </c>
       <c r="D10" t="n">
-        <v>69.3</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>7.35</v>
+        <v>6.3</v>
       </c>
       <c r="F10" t="n">
-        <v>27.3</v>
+        <v>26.95</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>21.35</v>
       </c>
       <c r="H10" t="n">
-        <v>28.7</v>
+        <v>28.35</v>
       </c>
       <c r="I10" t="n">
         <v>60.55</v>
@@ -1051,19 +1025,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>48.65</v>
+        <v>49</v>
       </c>
       <c r="L10" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M10" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N10" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1071,9 +1045,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="n">
+      <c r="V10" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1082,46 +1054,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>53.9</v>
+        <v>54.25</v>
       </c>
       <c r="C11" t="n">
-        <v>10.15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="n">
-        <v>40.25</v>
+        <v>39.9</v>
       </c>
       <c r="F11" t="n">
-        <v>59.85</v>
+        <v>60.2</v>
       </c>
       <c r="G11" t="n">
-        <v>65.09999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="H11" t="n">
         <v>47.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="J11" t="n">
-        <v>47.95</v>
+        <v>47.6</v>
       </c>
       <c r="K11" t="n">
         <v>22.75</v>
       </c>
       <c r="L11" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N11" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O11" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1129,10 +1101,8 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="n">
-        <v>0</v>
+      <c r="V11" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
@@ -1143,19 +1113,19 @@
         <v>47.25</v>
       </c>
       <c r="C12" t="n">
-        <v>32.9</v>
+        <v>32.55</v>
       </c>
       <c r="D12" t="n">
         <v>41.3</v>
       </c>
       <c r="E12" t="n">
-        <v>29.05</v>
+        <v>28.7</v>
       </c>
       <c r="F12" t="n">
-        <v>41.65</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>45.5</v>
+        <v>45.15</v>
       </c>
       <c r="H12" t="n">
         <v>14.7</v>
@@ -1164,22 +1134,22 @@
         <v>26.25</v>
       </c>
       <c r="J12" t="n">
-        <v>63</v>
+        <v>63.7</v>
       </c>
       <c r="K12" t="n">
-        <v>9.1</v>
+        <v>8.75</v>
       </c>
       <c r="L12" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M12" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N12" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O12" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1187,10 +1157,8 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>-0.7</v>
+      <c r="V12" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="13">
@@ -1198,46 +1166,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.55</v>
+        <v>11.2</v>
       </c>
       <c r="C13" t="n">
         <v>32.55</v>
       </c>
       <c r="D13" t="n">
-        <v>25.2</v>
+        <v>24.85</v>
       </c>
       <c r="E13" t="n">
-        <v>67.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>63.35</v>
+        <v>63.7</v>
       </c>
       <c r="I13" t="n">
-        <v>50.4</v>
+        <v>50.75</v>
       </c>
       <c r="J13" t="n">
         <v>27.65</v>
       </c>
       <c r="K13" t="n">
-        <v>58.45</v>
+        <v>58.8</v>
       </c>
       <c r="L13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M13" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N13" t="n">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O13" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1245,10 +1213,8 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>-0.35</v>
+      <c r="V13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1256,34 +1222,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="C14" t="n">
-        <v>63.7</v>
+        <v>64.05</v>
       </c>
       <c r="D14" t="n">
-        <v>21.7</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>75.95</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>11.9</v>
+        <v>11.55</v>
       </c>
       <c r="G14" t="n">
-        <v>37.1</v>
+        <v>37.45</v>
       </c>
       <c r="H14" t="n">
         <v>1.05</v>
       </c>
       <c r="I14" t="n">
-        <v>26.6</v>
+        <v>25.9</v>
       </c>
       <c r="J14" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="K14" t="n">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="L14" t="n">
         <v>262</v>
@@ -1292,10 +1258,10 @@
         <v>290</v>
       </c>
       <c r="N14" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O14" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1303,9 +1269,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
+      <c r="V14" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1314,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.3</v>
+        <v>34.65</v>
       </c>
       <c r="C15" t="n">
         <v>22.05</v>
@@ -1326,34 +1290,34 @@
         <v>17.5</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>34.65</v>
       </c>
       <c r="G15" t="n">
         <v>50.4</v>
       </c>
       <c r="H15" t="n">
-        <v>51.8</v>
+        <v>52.15</v>
       </c>
       <c r="I15" t="n">
         <v>36.05</v>
       </c>
       <c r="J15" t="n">
-        <v>21.35</v>
+        <v>21</v>
       </c>
       <c r="K15" t="n">
         <v>35.35</v>
       </c>
       <c r="L15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M15" t="n">
         <v>247</v>
       </c>
       <c r="N15" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O15" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1361,9 +1325,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
+      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1378,40 +1340,40 @@
         <v>50.05</v>
       </c>
       <c r="D16" t="n">
-        <v>20.3</v>
+        <v>20.65</v>
       </c>
       <c r="E16" t="n">
-        <v>32.55</v>
+        <v>32.2</v>
       </c>
       <c r="F16" t="n">
-        <v>43.75</v>
+        <v>44.1</v>
       </c>
       <c r="G16" t="n">
         <v>31.85</v>
       </c>
       <c r="H16" t="n">
-        <v>19.25</v>
+        <v>18.9</v>
       </c>
       <c r="I16" t="n">
-        <v>49</v>
+        <v>48.65</v>
       </c>
       <c r="J16" t="n">
-        <v>5.95</v>
+        <v>5.6</v>
       </c>
       <c r="K16" t="n">
         <v>46.55</v>
       </c>
       <c r="L16" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M16" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N16" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O16" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1419,10 +1381,8 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>-0.35</v>
+      <c r="V16" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="17">
@@ -1433,43 +1393,43 @@
         <v>47.95</v>
       </c>
       <c r="C17" t="n">
-        <v>6.65</v>
+        <v>5.95</v>
       </c>
       <c r="D17" t="n">
-        <v>70.34999999999999</v>
+        <v>71.05</v>
       </c>
       <c r="E17" t="n">
         <v>16.45</v>
       </c>
       <c r="F17" t="n">
-        <v>36.75</v>
+        <v>37.45</v>
       </c>
       <c r="G17" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
         <v>58.45</v>
       </c>
       <c r="I17" t="n">
-        <v>19.25</v>
+        <v>18.55</v>
       </c>
       <c r="J17" t="n">
-        <v>59.85</v>
+        <v>60.55</v>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>12.95</v>
       </c>
       <c r="L17" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M17" t="n">
         <v>353</v>
       </c>
       <c r="N17" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1477,10 +1437,8 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="n">
-        <v>0</v>
+      <c r="V17" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>

--- a/1st_round_screening/ACE/iteration_0/data/transfer_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/transfer_0.xlsx
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33.6</v>
+        <v>33.95</v>
       </c>
       <c r="C2" t="n">
-        <v>41.3</v>
+        <v>41.65</v>
       </c>
       <c r="D2" t="n">
-        <v>34.3</v>
+        <v>34.65</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="F2" t="n">
         <v>67.55</v>
@@ -568,7 +568,7 @@
         <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="I2" t="n">
         <v>24.5</v>
@@ -577,19 +577,19 @@
         <v>59.85</v>
       </c>
       <c r="K2" t="n">
-        <v>53.55</v>
+        <v>54.25</v>
       </c>
       <c r="L2" t="n">
         <v>257</v>
       </c>
       <c r="M2" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N2" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O2" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -598,7 +598,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>0.35</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>59.15</v>
+        <v>58.8</v>
       </c>
       <c r="C3" t="n">
         <v>23.1</v>
@@ -615,13 +615,13 @@
         <v>31.5</v>
       </c>
       <c r="E3" t="n">
-        <v>53.55</v>
+        <v>52.85</v>
       </c>
       <c r="F3" t="n">
         <v>31.5</v>
       </c>
       <c r="G3" t="n">
-        <v>40.95</v>
+        <v>40.6</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
@@ -630,19 +630,19 @@
         <v>33.25</v>
       </c>
       <c r="J3" t="n">
-        <v>15.75</v>
+        <v>16.45</v>
       </c>
       <c r="K3" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="L3" t="n">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M3" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3" t="n">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -662,46 +662,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.65</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>63.35</v>
       </c>
       <c r="D4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>20.3</v>
+        <v>19.6</v>
       </c>
       <c r="F4" t="n">
-        <v>15.4</v>
+        <v>15.75</v>
       </c>
       <c r="G4" t="n">
-        <v>77</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>22.05</v>
+        <v>22.4</v>
       </c>
       <c r="I4" t="n">
-        <v>75.25</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>1.75</v>
+        <v>0.7</v>
       </c>
       <c r="K4" t="n">
-        <v>22.75</v>
+        <v>23.1</v>
       </c>
       <c r="L4" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N4" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="O4" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -718,46 +718,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.3</v>
+        <v>5.95</v>
       </c>
       <c r="C5" t="n">
         <v>13.65</v>
       </c>
       <c r="D5" t="n">
-        <v>59.15</v>
+        <v>59.5</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>49.35</v>
       </c>
       <c r="F5" t="n">
-        <v>49.7</v>
+        <v>49.35</v>
       </c>
       <c r="G5" t="n">
-        <v>24.5</v>
+        <v>24.15</v>
       </c>
       <c r="H5" t="n">
-        <v>40.95</v>
+        <v>41.3</v>
       </c>
       <c r="I5" t="n">
-        <v>13.65</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
         <v>42.35</v>
       </c>
       <c r="K5" t="n">
-        <v>51.1</v>
+        <v>50.75</v>
       </c>
       <c r="L5" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M5" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -774,22 +774,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.85</v>
+        <v>17.15</v>
       </c>
       <c r="C6" t="n">
-        <v>69.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>55.3</v>
       </c>
       <c r="E6" t="n">
-        <v>38.15</v>
+        <v>39.2</v>
       </c>
       <c r="F6" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="G6" t="n">
-        <v>17.85</v>
+        <v>17.15</v>
       </c>
       <c r="H6" t="n">
         <v>36.05</v>
@@ -798,16 +798,16 @@
         <v>56.7</v>
       </c>
       <c r="J6" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.55</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M6" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="N6" t="n">
         <v>467</v>
@@ -822,7 +822,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>-0.35</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -836,19 +836,19 @@
         <v>8.75</v>
       </c>
       <c r="D7" t="n">
-        <v>22.05</v>
+        <v>22.4</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>49.7</v>
       </c>
       <c r="H7" t="n">
-        <v>56</v>
+        <v>57.05</v>
       </c>
       <c r="I7" t="n">
         <v>8.75</v>
@@ -857,19 +857,19 @@
         <v>56</v>
       </c>
       <c r="K7" t="n">
-        <v>87.15000000000001</v>
+        <v>86.45</v>
       </c>
       <c r="L7" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M7" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N7" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O7" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -878,7 +878,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
@@ -886,25 +886,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.3</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>40.95</v>
       </c>
       <c r="D8" t="n">
-        <v>48.65</v>
+        <v>48.3</v>
       </c>
       <c r="E8" t="n">
-        <v>49.7</v>
+        <v>50.05</v>
       </c>
       <c r="F8" t="n">
-        <v>15.75</v>
+        <v>16.45</v>
       </c>
       <c r="G8" t="n">
-        <v>43.05</v>
+        <v>42.35</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="I8" t="n">
         <v>25.55</v>
@@ -934,7 +934,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="9">
@@ -942,13 +942,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.5</v>
+        <v>24.15</v>
       </c>
       <c r="C9" t="n">
         <v>20.3</v>
       </c>
       <c r="D9" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="E9" t="n">
         <v>29.75</v>
@@ -960,25 +960,25 @@
         <v>31.85</v>
       </c>
       <c r="H9" t="n">
-        <v>69.65000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="I9" t="n">
         <v>45.85</v>
       </c>
       <c r="J9" t="n">
-        <v>33.95</v>
+        <v>34.65</v>
       </c>
       <c r="K9" t="n">
-        <v>31.85</v>
+        <v>31.15</v>
       </c>
       <c r="L9" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M9" t="n">
         <v>362</v>
       </c>
       <c r="N9" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O9" t="n">
         <v>295</v>
@@ -998,13 +998,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.95</v>
+        <v>19.25</v>
       </c>
       <c r="C10" t="n">
-        <v>58.1</v>
+        <v>58.45</v>
       </c>
       <c r="D10" t="n">
-        <v>69.3</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1013,19 +1013,19 @@
         <v>26.95</v>
       </c>
       <c r="G10" t="n">
-        <v>21.35</v>
+        <v>20.65</v>
       </c>
       <c r="H10" t="n">
         <v>28.35</v>
       </c>
       <c r="I10" t="n">
-        <v>60.9</v>
+        <v>61.25</v>
       </c>
       <c r="J10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="K10" t="n">
-        <v>48.65</v>
+        <v>49</v>
       </c>
       <c r="L10" t="n">
         <v>244</v>
@@ -1046,7 +1046,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -1054,13 +1054,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>53.55</v>
+        <v>54.25</v>
       </c>
       <c r="C11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="n">
         <v>40.6</v>
@@ -1078,22 +1078,22 @@
         <v>0.7</v>
       </c>
       <c r="J11" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="K11" t="n">
         <v>22.75</v>
       </c>
       <c r="L11" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M11" t="n">
         <v>49</v>
       </c>
       <c r="N11" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O11" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1102,7 +1102,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47.25</v>
+        <v>47.95</v>
       </c>
       <c r="C12" t="n">
         <v>32.55</v>
       </c>
       <c r="D12" t="n">
-        <v>40.95</v>
+        <v>41.65</v>
       </c>
       <c r="E12" t="n">
         <v>28.7</v>
@@ -1125,7 +1125,7 @@
         <v>41.65</v>
       </c>
       <c r="G12" t="n">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="H12" t="n">
         <v>14</v>
@@ -1137,19 +1137,19 @@
         <v>63.35</v>
       </c>
       <c r="K12" t="n">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="L12" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M12" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N12" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O12" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
         <v>11.9</v>
       </c>
       <c r="C13" t="n">
-        <v>31.85</v>
+        <v>32.55</v>
       </c>
       <c r="D13" t="n">
         <v>25.55</v>
@@ -1184,28 +1184,28 @@
         <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>63</v>
+        <v>62.65</v>
       </c>
       <c r="I13" t="n">
-        <v>50.4</v>
+        <v>50.75</v>
       </c>
       <c r="J13" t="n">
         <v>27.65</v>
       </c>
       <c r="K13" t="n">
-        <v>58.8</v>
+        <v>58.45</v>
       </c>
       <c r="L13" t="n">
         <v>19</v>
       </c>
       <c r="M13" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N13" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O13" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1231,37 +1231,37 @@
         <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>76.65000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F14" t="n">
         <v>11.55</v>
       </c>
       <c r="G14" t="n">
-        <v>37.45</v>
+        <v>37.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.95</v>
+        <v>26.6</v>
       </c>
       <c r="J14" t="n">
         <v>73.5</v>
       </c>
       <c r="K14" t="n">
-        <v>36.4</v>
+        <v>37.1</v>
       </c>
       <c r="L14" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M14" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N14" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O14" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>-0.35</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -1278,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>35</v>
+        <v>34.65</v>
       </c>
       <c r="C15" t="n">
         <v>21.7</v>
@@ -1290,7 +1290,7 @@
         <v>17.5</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>34.65</v>
       </c>
       <c r="G15" t="n">
         <v>50.4</v>
@@ -1305,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>35</v>
+        <v>35.35</v>
       </c>
       <c r="L15" t="n">
         <v>110</v>
@@ -1326,7 +1326,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16">
@@ -1343,19 +1343,19 @@
         <v>20.3</v>
       </c>
       <c r="E16" t="n">
-        <v>32.9</v>
+        <v>32.2</v>
       </c>
       <c r="F16" t="n">
-        <v>43.4</v>
+        <v>44.1</v>
       </c>
       <c r="G16" t="n">
-        <v>32.2</v>
+        <v>31.85</v>
       </c>
       <c r="H16" t="n">
-        <v>18.9</v>
+        <v>19.25</v>
       </c>
       <c r="I16" t="n">
-        <v>48.65</v>
+        <v>49</v>
       </c>
       <c r="J16" t="n">
         <v>5.6</v>
@@ -1364,16 +1364,16 @@
         <v>46.55</v>
       </c>
       <c r="L16" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M16" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" t="n">
         <v>31</v>
       </c>
       <c r="O16" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1382,7 +1382,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>0.35</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -1405,28 +1405,28 @@
         <v>37.1</v>
       </c>
       <c r="G17" t="n">
-        <v>19.6</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>59.15</v>
+        <v>58.1</v>
       </c>
       <c r="I17" t="n">
         <v>19.6</v>
       </c>
       <c r="J17" t="n">
-        <v>59.15</v>
+        <v>60.2</v>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>12.6</v>
       </c>
       <c r="L17" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M17" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N17" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O17" t="n">
         <v>24</v>
@@ -1438,7 +1438,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/1st_round_screening/ACE/iteration_0/data/transfer_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/transfer_0.xlsx
@@ -550,40 +550,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33.95</v>
+        <v>33.6</v>
       </c>
       <c r="C2" t="n">
-        <v>41.65</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>34.65</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="F2" t="n">
-        <v>67.55</v>
+        <v>67.2</v>
       </c>
       <c r="G2" t="n">
         <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>24.5</v>
+        <v>23.8</v>
       </c>
       <c r="J2" t="n">
-        <v>59.85</v>
+        <v>59.5</v>
       </c>
       <c r="K2" t="n">
-        <v>54.25</v>
+        <v>53.2</v>
       </c>
       <c r="L2" t="n">
+        <v>259</v>
+      </c>
+      <c r="M2" t="n">
         <v>257</v>
-      </c>
-      <c r="M2" t="n">
-        <v>259</v>
       </c>
       <c r="N2" t="n">
         <v>236</v>
@@ -598,7 +598,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -606,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58.8</v>
+        <v>58.45</v>
       </c>
       <c r="C3" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="D3" t="n">
         <v>31.5</v>
@@ -621,7 +621,7 @@
         <v>31.5</v>
       </c>
       <c r="G3" t="n">
-        <v>40.6</v>
+        <v>40.95</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
@@ -633,16 +633,16 @@
         <v>16.45</v>
       </c>
       <c r="K3" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="L3" t="n">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M3" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -662,46 +662,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>41.65</v>
       </c>
       <c r="C4" t="n">
-        <v>63.35</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="E4" t="n">
         <v>19.6</v>
       </c>
       <c r="F4" t="n">
-        <v>15.75</v>
+        <v>16.45</v>
       </c>
       <c r="G4" t="n">
-        <v>77.34999999999999</v>
+        <v>77</v>
       </c>
       <c r="H4" t="n">
-        <v>22.4</v>
+        <v>22.05</v>
       </c>
       <c r="I4" t="n">
-        <v>75.59999999999999</v>
+        <v>75.25</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="n">
-        <v>23.1</v>
+        <v>22.75</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N4" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O4" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -710,7 +710,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -721,10 +721,10 @@
         <v>5.95</v>
       </c>
       <c r="C5" t="n">
-        <v>13.65</v>
+        <v>12.95</v>
       </c>
       <c r="D5" t="n">
-        <v>59.5</v>
+        <v>59.85</v>
       </c>
       <c r="E5" t="n">
         <v>49.35</v>
@@ -733,31 +733,31 @@
         <v>49.35</v>
       </c>
       <c r="G5" t="n">
-        <v>24.15</v>
+        <v>24.5</v>
       </c>
       <c r="H5" t="n">
-        <v>41.3</v>
+        <v>40.6</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>13.65</v>
       </c>
       <c r="J5" t="n">
-        <v>42.35</v>
+        <v>42.7</v>
       </c>
       <c r="K5" t="n">
         <v>50.75</v>
       </c>
       <c r="L5" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M5" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N5" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O5" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -766,7 +766,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -786,10 +786,10 @@
         <v>39.2</v>
       </c>
       <c r="F6" t="n">
-        <v>39.9</v>
+        <v>39.2</v>
       </c>
       <c r="G6" t="n">
-        <v>17.15</v>
+        <v>17.85</v>
       </c>
       <c r="H6" t="n">
         <v>36.05</v>
@@ -804,13 +804,13 @@
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="N6" t="n">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="O6" t="n">
         <v>118</v>
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60.55</v>
+        <v>61.6</v>
       </c>
       <c r="C7" t="n">
         <v>8.75</v>
       </c>
       <c r="D7" t="n">
-        <v>22.4</v>
+        <v>21.35</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -860,16 +860,16 @@
         <v>86.45</v>
       </c>
       <c r="L7" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M7" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N7" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O7" t="n">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -886,22 +886,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>41.65</v>
       </c>
       <c r="C8" t="n">
         <v>40.95</v>
       </c>
       <c r="D8" t="n">
-        <v>48.3</v>
+        <v>48.65</v>
       </c>
       <c r="E8" t="n">
-        <v>50.05</v>
+        <v>49.7</v>
       </c>
       <c r="F8" t="n">
         <v>16.45</v>
       </c>
       <c r="G8" t="n">
-        <v>42.35</v>
+        <v>43.05</v>
       </c>
       <c r="H8" t="n">
         <v>6.65</v>
@@ -910,19 +910,19 @@
         <v>25.55</v>
       </c>
       <c r="J8" t="n">
-        <v>49.7</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
         <v>28.35</v>
       </c>
       <c r="L8" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M8" t="n">
         <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O8" t="n">
         <v>190</v>
@@ -934,7 +934,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -954,10 +954,10 @@
         <v>29.75</v>
       </c>
       <c r="F9" t="n">
-        <v>54.25</v>
+        <v>54.95</v>
       </c>
       <c r="G9" t="n">
-        <v>31.85</v>
+        <v>31.15</v>
       </c>
       <c r="H9" t="n">
         <v>69.3</v>
@@ -972,16 +972,16 @@
         <v>31.15</v>
       </c>
       <c r="L9" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M9" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N9" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O9" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -998,13 +998,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.25</v>
+        <v>19.95</v>
       </c>
       <c r="C10" t="n">
-        <v>58.45</v>
+        <v>58.1</v>
       </c>
       <c r="D10" t="n">
-        <v>69.65000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1016,28 +1016,28 @@
         <v>20.65</v>
       </c>
       <c r="H10" t="n">
-        <v>28.35</v>
+        <v>29.05</v>
       </c>
       <c r="I10" t="n">
-        <v>61.25</v>
+        <v>60.9</v>
       </c>
       <c r="J10" t="n">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>49</v>
+        <v>48.65</v>
       </c>
       <c r="L10" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M10" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N10" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O10" t="n">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1046,7 +1046,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>0.35</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="11">
@@ -1060,34 +1060,34 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="n">
-        <v>40.6</v>
+        <v>39.9</v>
       </c>
       <c r="F11" t="n">
         <v>60.2</v>
       </c>
       <c r="G11" t="n">
-        <v>65.45</v>
+        <v>64.75</v>
       </c>
       <c r="H11" t="n">
-        <v>47.6</v>
+        <v>47.95</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>47.6</v>
+        <v>47.95</v>
       </c>
       <c r="K11" t="n">
-        <v>22.75</v>
+        <v>22.4</v>
       </c>
       <c r="L11" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M11" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N11" t="n">
         <v>284</v>
@@ -1102,7 +1102,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47.95</v>
+        <v>47.25</v>
       </c>
       <c r="C12" t="n">
         <v>32.55</v>
@@ -1134,10 +1134,10 @@
         <v>26.25</v>
       </c>
       <c r="J12" t="n">
-        <v>63.35</v>
+        <v>63.7</v>
       </c>
       <c r="K12" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="L12" t="n">
         <v>398</v>
@@ -1158,7 +1158,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="13">
@@ -1178,34 +1178,34 @@
         <v>67.2</v>
       </c>
       <c r="F13" t="n">
-        <v>11.9</v>
+        <v>12.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>62.65</v>
+        <v>63</v>
       </c>
       <c r="I13" t="n">
-        <v>50.75</v>
+        <v>50.05</v>
       </c>
       <c r="J13" t="n">
         <v>27.65</v>
       </c>
       <c r="K13" t="n">
-        <v>58.45</v>
+        <v>58.8</v>
       </c>
       <c r="L13" t="n">
         <v>19</v>
       </c>
       <c r="M13" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N13" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O13" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1222,16 +1222,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.8</v>
+        <v>3.85</v>
       </c>
       <c r="C14" t="n">
-        <v>64.05</v>
+        <v>63.7</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="E14" t="n">
-        <v>76.3</v>
+        <v>75.95</v>
       </c>
       <c r="F14" t="n">
         <v>11.55</v>
@@ -1240,25 +1240,25 @@
         <v>37.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="I14" t="n">
         <v>26.6</v>
       </c>
       <c r="J14" t="n">
-        <v>73.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>37.1</v>
       </c>
       <c r="L14" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M14" t="n">
         <v>288</v>
       </c>
       <c r="N14" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O14" t="n">
         <v>274</v>
@@ -1270,7 +1270,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>-0</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1281,7 @@
         <v>34.65</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7</v>
+        <v>22.05</v>
       </c>
       <c r="D15" t="n">
         <v>46.2</v>
@@ -1326,7 +1326,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1364,16 +1364,16 @@
         <v>46.55</v>
       </c>
       <c r="L16" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M16" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N16" t="n">
         <v>31</v>
       </c>
       <c r="O16" t="n">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1390,34 +1390,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>48.65</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>5.95</v>
       </c>
       <c r="D17" t="n">
-        <v>70.7</v>
+        <v>71.05</v>
       </c>
       <c r="E17" t="n">
-        <v>16.1</v>
+        <v>16.45</v>
       </c>
       <c r="F17" t="n">
-        <v>37.1</v>
+        <v>36.05</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>19.6</v>
       </c>
       <c r="H17" t="n">
-        <v>58.1</v>
+        <v>59.15</v>
       </c>
       <c r="I17" t="n">
         <v>19.6</v>
       </c>
       <c r="J17" t="n">
-        <v>60.2</v>
+        <v>59.15</v>
       </c>
       <c r="K17" t="n">
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="L17" t="n">
         <v>398</v>
@@ -1438,7 +1438,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/1st_round_screening/ACE/iteration_0/data/transfer_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/transfer_0.xlsx
@@ -553,16 +553,16 @@
         <v>33.6</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>41.3</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>34.3</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="F2" t="n">
-        <v>67.2</v>
+        <v>67.55</v>
       </c>
       <c r="G2" t="n">
         <v>5.6</v>
@@ -571,25 +571,25 @@
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="J2" t="n">
-        <v>59.5</v>
+        <v>60.55</v>
       </c>
       <c r="K2" t="n">
-        <v>53.2</v>
+        <v>53.55</v>
       </c>
       <c r="L2" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M2" t="n">
         <v>257</v>
       </c>
       <c r="N2" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O2" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -598,7 +598,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58.45</v>
+        <v>58.8</v>
       </c>
       <c r="C3" t="n">
         <v>23.8</v>
@@ -618,31 +618,31 @@
         <v>52.85</v>
       </c>
       <c r="F3" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="G3" t="n">
-        <v>40.95</v>
+        <v>41.65</v>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>49.35</v>
       </c>
       <c r="I3" t="n">
-        <v>33.25</v>
+        <v>32.9</v>
       </c>
       <c r="J3" t="n">
-        <v>16.45</v>
+        <v>15.75</v>
       </c>
       <c r="K3" t="n">
         <v>12.6</v>
       </c>
       <c r="L3" t="n">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="N3" t="n">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -680,7 +680,7 @@
         <v>77</v>
       </c>
       <c r="H4" t="n">
-        <v>22.05</v>
+        <v>21.35</v>
       </c>
       <c r="I4" t="n">
         <v>75.25</v>
@@ -689,19 +689,19 @@
         <v>1.75</v>
       </c>
       <c r="K4" t="n">
-        <v>22.75</v>
+        <v>23.1</v>
       </c>
       <c r="L4" t="n">
         <v>101</v>
       </c>
       <c r="M4" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N4" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O4" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -710,7 +710,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -721,13 +721,13 @@
         <v>5.95</v>
       </c>
       <c r="C5" t="n">
-        <v>12.95</v>
+        <v>13.65</v>
       </c>
       <c r="D5" t="n">
-        <v>59.85</v>
+        <v>59.5</v>
       </c>
       <c r="E5" t="n">
-        <v>49.35</v>
+        <v>48.65</v>
       </c>
       <c r="F5" t="n">
         <v>49.35</v>
@@ -736,7 +736,7 @@
         <v>24.5</v>
       </c>
       <c r="H5" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="I5" t="n">
         <v>13.65</v>
@@ -748,16 +748,16 @@
         <v>50.75</v>
       </c>
       <c r="L5" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M5" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N5" t="n">
         <v>65</v>
       </c>
       <c r="O5" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -766,7 +766,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -774,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.15</v>
+        <v>16.8</v>
       </c>
       <c r="C6" t="n">
         <v>68.59999999999999</v>
@@ -783,10 +783,10 @@
         <v>55.3</v>
       </c>
       <c r="E6" t="n">
-        <v>39.2</v>
+        <v>38.15</v>
       </c>
       <c r="F6" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="G6" t="n">
         <v>17.85</v>
@@ -801,19 +801,19 @@
         <v>16.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>4.55</v>
       </c>
       <c r="L6" t="n">
         <v>52</v>
       </c>
       <c r="M6" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N6" t="n">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="O6" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -830,46 +830,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61.6</v>
+        <v>61.25</v>
       </c>
       <c r="C7" t="n">
         <v>8.75</v>
       </c>
       <c r="D7" t="n">
-        <v>21.35</v>
+        <v>22.05</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G7" t="n">
         <v>49.7</v>
       </c>
       <c r="H7" t="n">
-        <v>57.05</v>
+        <v>55.65</v>
       </c>
       <c r="I7" t="n">
         <v>8.75</v>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>55.65</v>
       </c>
       <c r="K7" t="n">
-        <v>86.45</v>
+        <v>86.8</v>
       </c>
       <c r="L7" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M7" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N7" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O7" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -889,40 +889,40 @@
         <v>41.65</v>
       </c>
       <c r="C8" t="n">
-        <v>40.95</v>
+        <v>40.6</v>
       </c>
       <c r="D8" t="n">
-        <v>48.65</v>
+        <v>48.3</v>
       </c>
       <c r="E8" t="n">
-        <v>49.7</v>
+        <v>50.05</v>
       </c>
       <c r="F8" t="n">
-        <v>16.45</v>
+        <v>15.75</v>
       </c>
       <c r="G8" t="n">
-        <v>43.05</v>
+        <v>42.7</v>
       </c>
       <c r="H8" t="n">
         <v>6.65</v>
       </c>
       <c r="I8" t="n">
-        <v>25.55</v>
+        <v>25.9</v>
       </c>
       <c r="J8" t="n">
-        <v>49</v>
+        <v>50.05</v>
       </c>
       <c r="K8" t="n">
-        <v>28.35</v>
+        <v>28.7</v>
       </c>
       <c r="L8" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M8" t="n">
         <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O8" t="n">
         <v>190</v>
@@ -934,7 +934,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="9">
@@ -945,7 +945,7 @@
         <v>24.15</v>
       </c>
       <c r="C9" t="n">
-        <v>20.3</v>
+        <v>19.6</v>
       </c>
       <c r="D9" t="n">
         <v>8.4</v>
@@ -954,10 +954,10 @@
         <v>29.75</v>
       </c>
       <c r="F9" t="n">
-        <v>54.95</v>
+        <v>54.25</v>
       </c>
       <c r="G9" t="n">
-        <v>31.15</v>
+        <v>31.85</v>
       </c>
       <c r="H9" t="n">
         <v>69.3</v>
@@ -969,19 +969,19 @@
         <v>34.65</v>
       </c>
       <c r="K9" t="n">
-        <v>31.15</v>
+        <v>31.85</v>
       </c>
       <c r="L9" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M9" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N9" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O9" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -998,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.95</v>
+        <v>19.6</v>
       </c>
       <c r="C10" t="n">
-        <v>58.1</v>
+        <v>57.75</v>
       </c>
       <c r="D10" t="n">
         <v>69.3</v>
@@ -1013,13 +1013,13 @@
         <v>26.95</v>
       </c>
       <c r="G10" t="n">
-        <v>20.65</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
         <v>29.05</v>
       </c>
       <c r="I10" t="n">
-        <v>60.9</v>
+        <v>60.55</v>
       </c>
       <c r="J10" t="n">
         <v>9.800000000000001</v>
@@ -1028,7 +1028,7 @@
         <v>48.65</v>
       </c>
       <c r="L10" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M10" t="n">
         <v>485</v>
@@ -1037,7 +1037,7 @@
         <v>77</v>
       </c>
       <c r="O10" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1046,7 +1046,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -1057,43 +1057,43 @@
         <v>54.25</v>
       </c>
       <c r="C11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="D11" t="n">
         <v>1.4</v>
       </c>
       <c r="E11" t="n">
-        <v>39.9</v>
+        <v>40.6</v>
       </c>
       <c r="F11" t="n">
-        <v>60.2</v>
+        <v>59.5</v>
       </c>
       <c r="G11" t="n">
         <v>64.75</v>
       </c>
       <c r="H11" t="n">
-        <v>47.95</v>
+        <v>47.6</v>
       </c>
       <c r="I11" t="n">
         <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>47.95</v>
+        <v>47.6</v>
       </c>
       <c r="K11" t="n">
         <v>22.4</v>
       </c>
       <c r="L11" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M11" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N11" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O11" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1102,7 +1102,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -1113,43 +1113,43 @@
         <v>47.25</v>
       </c>
       <c r="C12" t="n">
-        <v>32.55</v>
+        <v>33.25</v>
       </c>
       <c r="D12" t="n">
-        <v>41.65</v>
+        <v>41.3</v>
       </c>
       <c r="E12" t="n">
         <v>28.7</v>
       </c>
       <c r="F12" t="n">
-        <v>41.65</v>
+        <v>41.3</v>
       </c>
       <c r="G12" t="n">
-        <v>45.5</v>
+        <v>45.15</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="I12" t="n">
         <v>26.25</v>
       </c>
       <c r="J12" t="n">
-        <v>63.7</v>
+        <v>63</v>
       </c>
       <c r="K12" t="n">
         <v>9.1</v>
       </c>
       <c r="L12" t="n">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M12" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N12" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O12" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1158,7 +1158,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1175,37 +1175,37 @@
         <v>25.55</v>
       </c>
       <c r="E13" t="n">
-        <v>67.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="G13" t="n">
         <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>63</v>
+        <v>62.65</v>
       </c>
       <c r="I13" t="n">
-        <v>50.05</v>
+        <v>50.75</v>
       </c>
       <c r="J13" t="n">
         <v>27.65</v>
       </c>
       <c r="K13" t="n">
-        <v>58.8</v>
+        <v>58.45</v>
       </c>
       <c r="L13" t="n">
         <v>19</v>
       </c>
       <c r="M13" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N13" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O13" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1222,16 +1222,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="C14" t="n">
-        <v>63.7</v>
+        <v>64.05</v>
       </c>
       <c r="D14" t="n">
-        <v>21.7</v>
+        <v>22.05</v>
       </c>
       <c r="E14" t="n">
-        <v>75.95</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="F14" t="n">
         <v>11.55</v>
@@ -1240,22 +1240,22 @@
         <v>37.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.6</v>
+        <v>25.9</v>
       </c>
       <c r="J14" t="n">
-        <v>72.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="K14" t="n">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="L14" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M14" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N14" t="n">
         <v>172</v>
@@ -1278,25 +1278,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.65</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>22.05</v>
+        <v>21.7</v>
       </c>
       <c r="D15" t="n">
-        <v>46.2</v>
+        <v>46.55</v>
       </c>
       <c r="E15" t="n">
         <v>17.5</v>
       </c>
       <c r="F15" t="n">
-        <v>34.65</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>50.4</v>
+        <v>50.75</v>
       </c>
       <c r="H15" t="n">
-        <v>52.15</v>
+        <v>51.8</v>
       </c>
       <c r="I15" t="n">
         <v>36.05</v>
@@ -1305,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>35.35</v>
+        <v>35</v>
       </c>
       <c r="L15" t="n">
         <v>110</v>
@@ -1326,7 +1326,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="16">
@@ -1340,10 +1340,10 @@
         <v>50.05</v>
       </c>
       <c r="D16" t="n">
-        <v>20.3</v>
+        <v>19.95</v>
       </c>
       <c r="E16" t="n">
-        <v>32.2</v>
+        <v>32.9</v>
       </c>
       <c r="F16" t="n">
         <v>44.1</v>
@@ -1352,7 +1352,7 @@
         <v>31.85</v>
       </c>
       <c r="H16" t="n">
-        <v>19.25</v>
+        <v>18.9</v>
       </c>
       <c r="I16" t="n">
         <v>49</v>
@@ -1382,7 +1382,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1390,19 +1390,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>48.65</v>
       </c>
       <c r="C17" t="n">
         <v>5.95</v>
       </c>
       <c r="D17" t="n">
-        <v>71.05</v>
+        <v>70.7</v>
       </c>
       <c r="E17" t="n">
-        <v>16.45</v>
+        <v>16.1</v>
       </c>
       <c r="F17" t="n">
-        <v>36.05</v>
+        <v>37.1</v>
       </c>
       <c r="G17" t="n">
         <v>19.6</v>
